--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437950.867944432</v>
+        <v>3546101.960858725</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7823323.736817578</v>
+        <v>7829366.747404834</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.114582423406</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.4048619988999</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>67.81471357013044</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>21.43106344628835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>286.4476326286623</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>180.5760018108581</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>31.055404321194</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.9373113771856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>215.0282895609879</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>47.74395957035205</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>62.01188538444634</v>
       </c>
       <c r="I10" t="n">
-        <v>69.78055209964654</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>156.8624097380501</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>15.09910835322229</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6324680438217263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644399061</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>150.3341561773491</v>
       </c>
       <c r="U19" t="n">
-        <v>186.9166231085223</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>121.2558461704863</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>183.2947721274504</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.71385496658286</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>90.48716302792829</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>131.2944603446586</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>4.444394634329312</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.06198119183939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>2.813978415465053</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3472,22 +3474,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>35.66650366117432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>90.48716302792783</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>105.0006820737989</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>109.1623230749908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>32.47207866589218</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.9900098519203</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.9561815953474</v>
+        <v>862.4791652013146</v>
       </c>
       <c r="C2" t="n">
-        <v>777.9561815953474</v>
+        <v>493.5166482609029</v>
       </c>
       <c r="D2" t="n">
-        <v>777.9561815953474</v>
+        <v>493.5166482609029</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926588</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1395.483980665509</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1005.344648689697</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251085</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>771.7836012132566</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="C4" t="n">
-        <v>602.8474182853497</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D4" t="n">
-        <v>452.7307788730139</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1567.946409397598</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1567.946409397598</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>1278.828071901436</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478913</v>
+        <v>1024.143583695549</v>
       </c>
       <c r="W4" t="n">
-        <v>771.7836012132566</v>
+        <v>734.7264136585883</v>
       </c>
       <c r="X4" t="n">
-        <v>771.7836012132566</v>
+        <v>506.7368627605709</v>
       </c>
       <c r="Y4" t="n">
-        <v>771.7836012132566</v>
+        <v>506.7368627605709</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.574246756696</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="C5" t="n">
-        <v>829.6117298162842</v>
+        <v>974.0096264057515</v>
       </c>
       <c r="D5" t="n">
-        <v>829.6117298162842</v>
+        <v>615.7439277990011</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>615.7439277990011</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796629</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796629</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820818</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232067</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>672.7372331862462</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>444.7476822882288</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.7503980688494</v>
+        <v>771.8570290615538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1793.919728214993</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1793.919728214993</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1435.654029608243</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1049.865777009998</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>638.8798722203908</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.401852205159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>3071.401852205159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579779</v>
+        <v>538.7930236439497</v>
       </c>
       <c r="C10" t="n">
-        <v>431.1278029579779</v>
+        <v>369.8568407160428</v>
       </c>
       <c r="D10" t="n">
-        <v>431.1278029579779</v>
+        <v>219.7402013037071</v>
       </c>
       <c r="E10" t="n">
-        <v>283.2147093755848</v>
+        <v>219.7402013037071</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2147093755848</v>
+        <v>219.7402013037071</v>
       </c>
       <c r="G10" t="n">
-        <v>283.2147093755848</v>
+        <v>219.7402013037071</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9975225934426</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>766.7825745419671</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>538.7930236439497</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579779</v>
+        <v>538.7930236439497</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1888.077129657224</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910542</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>782.4567403631473</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>632.3401009508116</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5470,16 +5472,16 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199802</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162841</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264824</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121294</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5546,16 +5548,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2389.155899672379</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>4289.079931298477</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>4289.079931298477</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>4034.39544309259</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>3905.661761784424</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3044.50749608713</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C22" t="n">
-        <v>2875.571313159223</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>652.8121879835381</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>504.899094401145</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>358.0091469032346</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4219.039749201765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.355260995878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>3674.938090958917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.9485400609</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.15596091737</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913446</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>2978.613657539998</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N24" t="n">
-        <v>3606.211621094605</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
-        <v>4158.121351333892</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P24" t="n">
-        <v>4581.74450082896</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>3642.838752636078</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>3422.046173492548</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.965271928681</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3333.446064938863</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>3164.509882010957</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.393242598621</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>2866.480149016228</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>2719.590201518317</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2552.394102233197</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>4507.978318053498</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>4253.293829847611</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>3963.87665981065</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>3735.887108912633</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>3515.094529769103</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2377.074977392799</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2157.473512415741</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6974,13 +6976,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>2359.11504251899</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669522</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741615</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D37" t="n">
         <v>3023.484406741615</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>4543.072134725449</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>4323.470669748391</v>
       </c>
       <c r="U37" t="n">
-        <v>4185.304377953917</v>
+        <v>4034.395443092588</v>
       </c>
       <c r="V37" t="n">
-        <v>3930.61988974803</v>
+        <v>4034.395443092588</v>
       </c>
       <c r="W37" t="n">
-        <v>3641.202719711069</v>
+        <v>3744.978273055628</v>
       </c>
       <c r="X37" t="n">
-        <v>3413.213168813052</v>
+        <v>3744.978273055628</v>
       </c>
       <c r="Y37" t="n">
-        <v>3192.420589669522</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>139.234765840794</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7639,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>802.9288273958734</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>652.8121879835377</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>504.8990944011446</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>358.0091469032342</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>45.76488231024615</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019044</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>105.1672460959152</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>60.54304058923813</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>271.4238899833687</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>218.1071577446381</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>67.07129414993915</v>
       </c>
       <c r="U19" t="n">
-        <v>99.26785128072183</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.26829212178259</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.8897022617937</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.1181252153544</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.000252501565257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.2652607547078</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>178.2123075861795</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>101.1181252153549</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.5179707280698</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>112.4047682534894</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>684068.8437531694</v>
+        <v>690604.9640043473</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244626</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
@@ -26335,25 +26337,25 @@
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86694.40323307092</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,34 +26432,34 @@
         <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719721</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719728</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719732</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719729</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719705</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380462</v>
+        <v>-581339.7824380464</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.0011378736</v>
+        <v>533412.0011378734</v>
       </c>
       <c r="D6" t="n">
-        <v>372208.1528896603</v>
+        <v>533412.0011378733</v>
       </c>
       <c r="E6" t="n">
-        <v>312568.2446202736</v>
+        <v>130495.2648030823</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276289</v>
+        <v>637980.7064276284</v>
       </c>
       <c r="G6" t="n">
         <v>637980.7064276284</v>
@@ -26540,28 +26542,28 @@
         <v>637980.7064276286</v>
       </c>
       <c r="I6" t="n">
+        <v>637980.7064276284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>470375.5286176459</v>
+      </c>
+      <c r="K6" t="n">
         <v>637980.7064276285</v>
       </c>
-      <c r="J6" t="n">
-        <v>470375.528617646</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>637980.7064276286</v>
+      </c>
+      <c r="M6" t="n">
+        <v>505373.4126987018</v>
+      </c>
+      <c r="N6" t="n">
+        <v>637980.7064276283</v>
+      </c>
+      <c r="O6" t="n">
         <v>637980.7064276284</v>
       </c>
-      <c r="L6" t="n">
-        <v>589686.7364194379</v>
-      </c>
-      <c r="M6" t="n">
-        <v>552925.6784921167</v>
-      </c>
-      <c r="N6" t="n">
-        <v>637980.7064276285</v>
-      </c>
-      <c r="O6" t="n">
-        <v>637980.7064276285</v>
-      </c>
       <c r="P6" t="n">
-        <v>637980.7064276288</v>
+        <v>637980.7064276286</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.6192592400746</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>263.5255080733619</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>126.847746791607</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>265.0919348903026</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>95.48273744359949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>226.3000439308533</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>194.6542510678431</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.6473419749092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>196.5194132119661</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>203.2512123885499</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>85.23962377068253</v>
       </c>
       <c r="I10" t="n">
-        <v>26.57186831019155</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>191.332301678856</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>533.0479862785273</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N21" t="n">
-        <v>381.2855185329316</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>165.3312853305614</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>399.4395445221152</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.8708611242907</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980275</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>381.1895643063692</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839449</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>354.8467752194474</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>59.99058959552271</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>25.34951124453992</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>265.4651371077849</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>45.87687150790111</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127482</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546101.960858725</v>
+        <v>3541964.803608575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.4048619988999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>212.0104859966385</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>67.81471357013044</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>18.36797920751869</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>175.9698177787948</v>
       </c>
       <c r="F5" t="n">
-        <v>180.5760018108581</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>31.055404321194</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>215.0282895609879</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>39.24787928625943</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>62.01188538444634</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472225</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>97.54185816719642</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>156.8624097380501</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>7.602497644399061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>150.3341561773491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.2558461704863</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>90.48716302792829</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>4.444394634329312</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>20.9284728855285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>20.88994825141581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,13 +3322,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>79.9081607862897</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>105.0006820737989</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.47207866589218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>862.4791652013146</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>493.5166482609029</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>493.5166482609029</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2014.74247347524</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1683.679586131669</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1330.910930861555</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>1330.910930861555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.079005265436</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.0883979303312</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1567.946409397598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1567.946409397598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1278.828071901436</v>
+        <v>1617.892605723468</v>
       </c>
       <c r="V4" t="n">
-        <v>1024.143583695549</v>
+        <v>1363.208117517582</v>
       </c>
       <c r="W4" t="n">
-        <v>734.7264136585883</v>
+        <v>1073.790947480621</v>
       </c>
       <c r="X4" t="n">
-        <v>506.7368627605709</v>
+        <v>845.8013965826035</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.7368627605709</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.972143346163</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C5" t="n">
-        <v>974.0096264057515</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D5" t="n">
-        <v>615.7439277990011</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E5" t="n">
-        <v>615.7439277990011</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
         <v>433.3439259698515</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4606,13 +4606,13 @@
         <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1733.111475321975</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.972143346163</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925521</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101683</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>771.8570290615538</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>771.8570290615538</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>771.8570290615538</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1793.919728214993</v>
+        <v>1203.388756704965</v>
       </c>
       <c r="C8" t="n">
-        <v>1793.919728214993</v>
+        <v>1203.388756704965</v>
       </c>
       <c r="D8" t="n">
-        <v>1435.654029608243</v>
+        <v>1203.388756704965</v>
       </c>
       <c r="E8" t="n">
-        <v>1049.865777009998</v>
+        <v>817.6005041067206</v>
       </c>
       <c r="F8" t="n">
-        <v>638.8798722203908</v>
+        <v>810.6550033575171</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>394.950253081806</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>90.89110907937624</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816076</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005978</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005978</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005978</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.593687005978</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190805</v>
+        <v>1980.127928744898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1793.919728214993</v>
+        <v>1589.988596769087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.7930236439497</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8568407160428</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7402013037071</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7402013037071</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7402013037071</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>219.7402013037071</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>766.7825745419671</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>538.7930236439497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.7930236439497</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.661370711882</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.58614405608</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.901655850193</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4289.079931298477</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4289.079931298477</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>4034.39544309259</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>802.9288273958739</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>652.8121879835381</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>504.899094401145</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>358.0091469032346</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2527.965271928681</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9565346495158</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>114.9565346495158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>197.0043242297712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>197.0043242297712</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2359.11504251899</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2854.440648734749</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>2854.440648734749</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4543.072134725449</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4323.470669748391</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4034.395443092588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4034.395443092588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.978273055628</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.0422355233313</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2091.001250463528</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1801.926023807726</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1547.241535601839</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.824365564879</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.834814666861</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>809.0422355233313</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.76488231024615</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>105.1672460959152</v>
+        <v>193.3273467878343</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>48.89210447937275</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60.54304058923813</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>218.1071577446381</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>67.07129414993915</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>44.26829212178259</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.1181252153549</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.4047682534894</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132551</v>
@@ -26355,7 +26355,7 @@
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26450,13 +26450,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380464</v>
+        <v>-581339.7824380465</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.0011378734</v>
+        <v>533412.0011378733</v>
       </c>
       <c r="D6" t="n">
-        <v>533412.0011378733</v>
+        <v>533412.0011378737</v>
       </c>
       <c r="E6" t="n">
-        <v>130495.2648030823</v>
+        <v>130147.8855487255</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732717</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732718</v>
       </c>
       <c r="J6" t="n">
-        <v>470375.5286176459</v>
+        <v>470028.1493632892</v>
       </c>
       <c r="K6" t="n">
-        <v>637980.7064276285</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="L6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732718</v>
       </c>
       <c r="M6" t="n">
-        <v>505373.4126987018</v>
+        <v>505026.0334443449</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276283</v>
+        <v>637633.3271732713</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276284</v>
+        <v>637633.3271732716</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276286</v>
+        <v>637633.3271732713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5255080733619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.03476413182349</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>126.847746791607</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>267.8591749136819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>205.9605522934669</v>
       </c>
       <c r="F5" t="n">
-        <v>226.3000439308533</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>194.6542510678431</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>196.5194132119661</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>26.46203338621113</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>85.23962377068253</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181467</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,10 +31630,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>514.6953762540926</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>530.5785304507785</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>172.8142548092788</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.3312853305614</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>552.0015769888928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33499,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>186.6878763515707</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>381.1895643063692</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>354.8467752194474</v>
+        <v>443.0068759113666</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>372.0991318096482</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>388.4444965287602</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.34951124453992</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>418.0271695745625</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>127.0294221499318</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>527.4636460127482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>44.0916319071262</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3541964.803608575</v>
+        <v>3543725.33391136</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7829366.747404834</v>
+        <v>7829366.747404833</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>212.0104859966385</v>
+        <v>226.5760189318037</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="U4" t="n">
-        <v>18.36797920751869</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>175.9698177787948</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>6.245110711214406</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.24787928625943</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>112.3776212612249</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>97.54185816719642</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881298</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505371</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2014.74247347524</v>
+        <v>2000.02981394477</v>
       </c>
       <c r="V2" t="n">
-        <v>1683.679586131669</v>
+        <v>1668.966926601199</v>
       </c>
       <c r="W2" t="n">
-        <v>1330.910930861555</v>
+        <v>1316.198271331085</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.910930861555</v>
+        <v>1316.198271331085</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.910930861555</v>
+        <v>926.0589393552737</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U4" t="n">
-        <v>1617.892605723468</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1363.208117517582</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.790947480621</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>845.8013965826035</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>845.8013965826035</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051861</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.342820051861</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.07712144511</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2556.031135762565</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2347.28549436839</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>2093.704433632569</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.388756704965</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C8" t="n">
-        <v>1203.388756704965</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D8" t="n">
-        <v>1203.388756704965</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>817.6005041067206</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>810.6550033575171</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>394.950253081806</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>90.89110907937624</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816076</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005978</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005978</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.593687005978</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.593687005978</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.127928744898</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.988596769087</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380239</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4959,19 +4959,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5004,10 +5004,10 @@
         <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5080,7 +5080,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6600,25 +6600,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2307.590151828076</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.514925172274</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878365</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>48.89210447937275</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.604713255</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,13 +26447,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719697</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719613</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581339.7824380465</v>
+        <v>-581339.7824380466</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.0011378733</v>
+        <v>533412.0011378737</v>
       </c>
       <c r="D6" t="n">
-        <v>533412.0011378737</v>
+        <v>533412.0011378732</v>
       </c>
       <c r="E6" t="n">
-        <v>130147.8855487255</v>
+        <v>130460.5268776468</v>
       </c>
       <c r="F6" t="n">
-        <v>637633.3271732717</v>
+        <v>637945.968502193</v>
       </c>
       <c r="G6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="H6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="I6" t="n">
-        <v>637633.3271732718</v>
+        <v>637945.9685021929</v>
       </c>
       <c r="J6" t="n">
-        <v>470028.1493632892</v>
+        <v>470340.7906922102</v>
       </c>
       <c r="K6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="L6" t="n">
-        <v>637633.3271732718</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="M6" t="n">
-        <v>505026.0334443449</v>
+        <v>505338.674773266</v>
       </c>
       <c r="N6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021925</v>
       </c>
       <c r="O6" t="n">
-        <v>637633.3271732716</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="P6" t="n">
-        <v>637633.3271732713</v>
+        <v>637945.9685021928</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.03476413182349</v>
+        <v>24.46923119665831</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>100.4154405304715</v>
       </c>
       <c r="U4" t="n">
-        <v>267.8591749136819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>205.9605522934669</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>117.20710468758</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>53.81584707847268</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>26.46203338621113</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>236.8633474561881</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.187994147500149e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,10 +31630,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159439</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313211</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
